--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H2">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I2">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J2">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N2">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O2">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P2">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q2">
-        <v>4.55319513814811</v>
+        <v>3.145706055333334</v>
       </c>
       <c r="R2">
-        <v>40.978756243333</v>
+        <v>28.311354498</v>
       </c>
       <c r="S2">
-        <v>0.0008843238102554192</v>
+        <v>0.0004035456483916616</v>
       </c>
       <c r="T2">
-        <v>0.0008843238102554189</v>
+        <v>0.0004035456483916616</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H3">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I3">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J3">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.151571</v>
       </c>
       <c r="O3">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P3">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q3">
-        <v>13.74847241928233</v>
+        <v>22.63852505769067</v>
       </c>
       <c r="R3">
-        <v>123.736251773541</v>
+        <v>203.746725519216</v>
       </c>
       <c r="S3">
-        <v>0.002670235108780396</v>
+        <v>0.002904174170230474</v>
       </c>
       <c r="T3">
-        <v>0.002670235108780395</v>
+        <v>0.002904174170230473</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H4">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I4">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J4">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N4">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O4">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P4">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q4">
-        <v>26.30731531150055</v>
+        <v>60.90230596020801</v>
       </c>
       <c r="R4">
-        <v>236.765837803505</v>
+        <v>548.1207536418721</v>
       </c>
       <c r="S4">
-        <v>0.005109419782811896</v>
+        <v>0.007812828063064279</v>
       </c>
       <c r="T4">
-        <v>0.005109419782811894</v>
+        <v>0.007812828063064277</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H5">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I5">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J5">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N5">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O5">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P5">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q5">
-        <v>33.55179024508722</v>
+        <v>66.92036240088534</v>
       </c>
       <c r="R5">
-        <v>301.966112205785</v>
+        <v>602.283261607968</v>
       </c>
       <c r="S5">
-        <v>0.006516445285166027</v>
+        <v>0.008584852036599023</v>
       </c>
       <c r="T5">
-        <v>0.006516445285166025</v>
+        <v>0.008584852036599021</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>243.529606</v>
       </c>
       <c r="I6">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J6">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N6">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O6">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P6">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q6">
-        <v>279.1586097112375</v>
+        <v>117.1275934190833</v>
       </c>
       <c r="R6">
-        <v>2512.427487401138</v>
+        <v>1054.14834077175</v>
       </c>
       <c r="S6">
-        <v>0.05421832315885618</v>
+        <v>0.01502566667051488</v>
       </c>
       <c r="T6">
-        <v>0.05421832315885616</v>
+        <v>0.01502566667051488</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>243.529606</v>
       </c>
       <c r="I7">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J7">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>31.151571</v>
       </c>
       <c r="O7">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P7">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q7">
-        <v>842.9255346567805</v>
+        <v>842.9255346567808</v>
       </c>
       <c r="R7">
-        <v>7586.329811911025</v>
+        <v>7586.329811911026</v>
       </c>
       <c r="S7">
-        <v>0.1637134139769045</v>
+        <v>0.1081343664810137</v>
       </c>
       <c r="T7">
-        <v>0.1637134139769044</v>
+        <v>0.1081343664810137</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>243.529606</v>
       </c>
       <c r="I8">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J8">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N8">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O8">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P8">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q8">
-        <v>1612.914304081548</v>
+        <v>2267.643703930238</v>
       </c>
       <c r="R8">
-        <v>14516.22873673393</v>
+        <v>20408.79333537214</v>
       </c>
       <c r="S8">
-        <v>0.3132610133597276</v>
+        <v>0.2909037693691406</v>
       </c>
       <c r="T8">
-        <v>0.3132610133597275</v>
+        <v>0.2909037693691406</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>243.529606</v>
       </c>
       <c r="I9">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J9">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N9">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O9">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P9">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q9">
-        <v>2057.076587750001</v>
+        <v>2491.720733238705</v>
       </c>
       <c r="R9">
-        <v>18513.68928975001</v>
+        <v>22425.48659914835</v>
       </c>
       <c r="S9">
-        <v>0.3995264316315193</v>
+        <v>0.3196494018253749</v>
       </c>
       <c r="T9">
-        <v>0.3995264316315191</v>
+        <v>0.3196494018253749</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H10">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I10">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J10">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N10">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O10">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P10">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q10">
-        <v>12.12529727181756</v>
+        <v>37.041867919</v>
       </c>
       <c r="R10">
-        <v>109.127675446358</v>
+        <v>333.376811271</v>
       </c>
       <c r="S10">
-        <v>0.002354981229347115</v>
+        <v>0.004751901272424253</v>
       </c>
       <c r="T10">
-        <v>0.002354981229347113</v>
+        <v>0.004751901272424253</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H11">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I11">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J11">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>31.151571</v>
       </c>
       <c r="O11">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P11">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q11">
-        <v>36.61260061544067</v>
+        <v>266.577118242248</v>
       </c>
       <c r="R11">
-        <v>329.513405538966</v>
+        <v>2399.194064180232</v>
       </c>
       <c r="S11">
-        <v>0.007110917388173929</v>
+        <v>0.03419773943756146</v>
       </c>
       <c r="T11">
-        <v>0.007110917388173927</v>
+        <v>0.03419773943756145</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H12">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I12">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J12">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N12">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O12">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P12">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q12">
-        <v>70.05718158284779</v>
+        <v>717.147480933816</v>
       </c>
       <c r="R12">
-        <v>630.5146342456301</v>
+        <v>6454.327328404343</v>
       </c>
       <c r="S12">
-        <v>0.01360654043443821</v>
+        <v>0.09199897895584438</v>
       </c>
       <c r="T12">
-        <v>0.0136065404344382</v>
+        <v>0.09199897895584437</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H13">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I13">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J13">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N13">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O13">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P13">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q13">
-        <v>89.34943888410112</v>
+        <v>788.012351294704</v>
       </c>
       <c r="R13">
-        <v>804.1449499569101</v>
+        <v>7092.111161652335</v>
       </c>
       <c r="S13">
-        <v>0.0173534921831417</v>
+        <v>0.1010898506250173</v>
       </c>
       <c r="T13">
-        <v>0.01735349218314169</v>
+        <v>0.1010898506250173</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H14">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I14">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J14">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N14">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O14">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P14">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q14">
-        <v>4.101499201341667</v>
+        <v>2.321585394041667</v>
       </c>
       <c r="R14">
-        <v>36.913492812075</v>
+        <v>20.894268546375</v>
       </c>
       <c r="S14">
-        <v>0.000796595202147481</v>
+        <v>0.0002978236576004178</v>
       </c>
       <c r="T14">
-        <v>0.0007965952021474806</v>
+        <v>0.0002978236576004178</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H15">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I15">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J15">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>31.151571</v>
       </c>
       <c r="O15">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P15">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q15">
-        <v>12.384566647475</v>
+        <v>16.70762245171433</v>
       </c>
       <c r="R15">
-        <v>111.461099827275</v>
+        <v>150.368602065429</v>
       </c>
       <c r="S15">
-        <v>0.002405336655637318</v>
+        <v>0.002143330691667471</v>
       </c>
       <c r="T15">
-        <v>0.002405336655637318</v>
+        <v>0.00214333069166747</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H16">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I16">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J16">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N16">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O16">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P16">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q16">
-        <v>23.69751997570834</v>
+        <v>44.946953559427</v>
       </c>
       <c r="R16">
-        <v>213.277679781375</v>
+        <v>404.522582034843</v>
       </c>
       <c r="S16">
-        <v>0.004602544042741315</v>
+        <v>0.00576600203525592</v>
       </c>
       <c r="T16">
-        <v>0.004602544042741313</v>
+        <v>0.005766002035255919</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H17">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I17">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J17">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N17">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O17">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P17">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q17">
-        <v>30.22331279870833</v>
+        <v>49.38838314230466</v>
       </c>
       <c r="R17">
-        <v>272.009815188375</v>
+        <v>444.495448280742</v>
       </c>
       <c r="S17">
-        <v>0.005869986750351689</v>
+        <v>0.006335769060299317</v>
       </c>
       <c r="T17">
-        <v>0.005869986750351686</v>
+        <v>0.006335769060299317</v>
       </c>
     </row>
   </sheetData>
